--- a/Docs/Test Plan.xlsx
+++ b/Docs/Test Plan.xlsx
@@ -4159,7 +4159,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4268,26 +4268,18 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="1">
-        <v>43</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="1">
-        <v>47</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>59</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="1">
-        <v>62</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
